--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/15/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.63179999999999</v>
+        <v>-12.9717</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.664799999999999</v>
+        <v>5.959299999999998</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.9655</v>
+        <v>5.566000000000003</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.7251</v>
+        <v>5.0678</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.92059999999999</v>
+        <v>-14.11419999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,10 +737,10 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.703500000000002</v>
+        <v>7.449199999999998</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.05869999999999</v>
+        <v>-12.40569999999999</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.9681</v>
+        <v>-12.0002</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.5073</v>
+        <v>-11.3523</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.29089999999999</v>
+        <v>-13.20039999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.05689999999999</v>
+        <v>-13.20279999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.939600000000004</v>
+        <v>8.755699999999997</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.9673</v>
+        <v>-12.9864</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.3163</v>
+        <v>-13.53329999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.263899999999999</v>
+        <v>6.271199999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>6.310599999999998</v>
+        <v>6.131</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.16100000000001</v>
+        <v>-11.94840000000001</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.65880000000001</v>
+        <v>-12.28910000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.221300000000005</v>
+        <v>9.039300000000003</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.585900000000001</v>
+        <v>9.4184</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.7182</v>
+        <v>5.357199999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.435599999999999</v>
+        <v>5.306900000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.73739999999999</v>
+        <v>-14.02659999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.81169999999999</v>
+        <v>-12.85659999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.99060000000001</v>
+        <v>-13.3606</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.4186</v>
+        <v>-12.61929999999999</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,7 +2151,7 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.70950000000001</v>
+        <v>-12.88220000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.92570000000001</v>
+        <v>-13.2518</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
